--- a/data/pca/factorExposure/factorExposure_2019-04-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1317032101088136</v>
+        <v>-0.07764953476133972</v>
       </c>
       <c r="C2">
-        <v>0.01207128086327514</v>
+        <v>0.04106616091667963</v>
       </c>
       <c r="D2">
-        <v>-0.04187841895042735</v>
+        <v>0.0004624759455742919</v>
       </c>
       <c r="E2">
-        <v>-0.1049049646479369</v>
+        <v>-0.040238497584706</v>
       </c>
       <c r="F2">
-        <v>-0.1014685009952662</v>
+        <v>0.1420517118824346</v>
       </c>
       <c r="G2">
-        <v>0.02503969024463673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1119412050569153</v>
+      </c>
+      <c r="H2">
+        <v>0.04185740244061019</v>
+      </c>
+      <c r="I2">
+        <v>-0.004622765827513807</v>
+      </c>
+      <c r="J2">
+        <v>-0.07786778811185414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2271945896898217</v>
+        <v>-0.1680578309455</v>
       </c>
       <c r="C3">
-        <v>-0.09877291451431568</v>
+        <v>0.08138861127810978</v>
       </c>
       <c r="D3">
-        <v>0.04326720490627137</v>
+        <v>-0.06168954214671291</v>
       </c>
       <c r="E3">
-        <v>-0.3170060977588836</v>
+        <v>0.01860835007268054</v>
       </c>
       <c r="F3">
-        <v>-0.01196356987411314</v>
+        <v>0.3712320830292156</v>
       </c>
       <c r="G3">
-        <v>0.1366976792660148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1078253771332967</v>
+      </c>
+      <c r="H3">
+        <v>0.2618333704343663</v>
+      </c>
+      <c r="I3">
+        <v>-0.111035313605335</v>
+      </c>
+      <c r="J3">
+        <v>-0.3069437046508988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1014587206408291</v>
+        <v>-0.0753752551269818</v>
       </c>
       <c r="C4">
-        <v>-0.02871876305196127</v>
+        <v>0.02756975421752808</v>
       </c>
       <c r="D4">
-        <v>-0.02419301968537476</v>
+        <v>-0.03665703422803637</v>
       </c>
       <c r="E4">
-        <v>-0.07534042161088637</v>
+        <v>-0.03276955934070844</v>
       </c>
       <c r="F4">
-        <v>-0.03471910472542967</v>
+        <v>0.08259685789117169</v>
       </c>
       <c r="G4">
-        <v>0.04100191962169941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04514844185019149</v>
+      </c>
+      <c r="H4">
+        <v>0.01864360467066739</v>
+      </c>
+      <c r="I4">
+        <v>-0.01550360832980251</v>
+      </c>
+      <c r="J4">
+        <v>-0.07092486507742911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.0181514572915567</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.001892419274046327</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.00826428488216375</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002349932600395361</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.00111915887145743</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02008451798681262</v>
+      </c>
+      <c r="H6">
+        <v>0.003547804329087908</v>
+      </c>
+      <c r="I6">
+        <v>0.009802016002006192</v>
+      </c>
+      <c r="J6">
+        <v>-0.002716559492230705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04321339482911774</v>
+        <v>-0.03553488030296413</v>
       </c>
       <c r="C7">
-        <v>-0.005200720240832909</v>
+        <v>-0.005289592733372058</v>
       </c>
       <c r="D7">
-        <v>-0.03249141129387073</v>
+        <v>-0.04047420143596899</v>
       </c>
       <c r="E7">
-        <v>-0.0731980950268154</v>
+        <v>-0.02696234511001032</v>
       </c>
       <c r="F7">
-        <v>0.05201460797296115</v>
+        <v>0.05614229949041735</v>
       </c>
       <c r="G7">
-        <v>0.001259553261814896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.003107409675862723</v>
+      </c>
+      <c r="H7">
+        <v>0.04433432034914477</v>
+      </c>
+      <c r="I7">
+        <v>0.02106263306296491</v>
+      </c>
+      <c r="J7">
+        <v>-0.04980839236531901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04251866596487992</v>
+        <v>-0.03143378530705167</v>
       </c>
       <c r="C8">
-        <v>-0.0410701607928347</v>
+        <v>0.02999684937249891</v>
       </c>
       <c r="D8">
-        <v>-0.003291680759756379</v>
+        <v>-0.03698984147648996</v>
       </c>
       <c r="E8">
-        <v>-0.07204339841969915</v>
+        <v>-0.01237177366955895</v>
       </c>
       <c r="F8">
-        <v>-0.006241929807941951</v>
+        <v>0.07496262091769135</v>
       </c>
       <c r="G8">
-        <v>0.02433853308868593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02437292203718042</v>
+      </c>
+      <c r="H8">
+        <v>0.04417567178085562</v>
+      </c>
+      <c r="I8">
+        <v>-0.01304725581231356</v>
+      </c>
+      <c r="J8">
+        <v>-0.07342802510212237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08850128701943072</v>
+        <v>-0.06253899848875272</v>
       </c>
       <c r="C9">
-        <v>-0.03129100157407168</v>
+        <v>0.02556004706716768</v>
       </c>
       <c r="D9">
-        <v>-0.03276419011558084</v>
+        <v>-0.04132412975176285</v>
       </c>
       <c r="E9">
-        <v>-0.06150433676285447</v>
+        <v>-0.0319616382563514</v>
       </c>
       <c r="F9">
-        <v>-0.02373812384679559</v>
+        <v>0.08324791293998805</v>
       </c>
       <c r="G9">
-        <v>0.05708633969506512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04204528699623346</v>
+      </c>
+      <c r="H9">
+        <v>0.01522372969061629</v>
+      </c>
+      <c r="I9">
+        <v>0.001727277501530255</v>
+      </c>
+      <c r="J9">
+        <v>-0.04025504407571654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.006196589490692457</v>
+        <v>-0.0197304832577789</v>
       </c>
       <c r="C10">
-        <v>0.1591813734294498</v>
+        <v>-0.1203941015443842</v>
       </c>
       <c r="D10">
-        <v>0.01624212137050641</v>
+        <v>0.1012447210686578</v>
       </c>
       <c r="E10">
-        <v>-0.0681450775491055</v>
+        <v>0.02386082264530153</v>
       </c>
       <c r="F10">
-        <v>-0.01836683764238424</v>
+        <v>0.07172896317146193</v>
       </c>
       <c r="G10">
-        <v>-0.01950944330476699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0249508048070087</v>
+      </c>
+      <c r="H10">
+        <v>-0.00304765720551947</v>
+      </c>
+      <c r="I10">
+        <v>-0.1120982494206491</v>
+      </c>
+      <c r="J10">
+        <v>-0.03341545318666623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05805264695388511</v>
+        <v>-0.04848203989655336</v>
       </c>
       <c r="C11">
-        <v>-0.005599134433963325</v>
+        <v>0.02509292695858496</v>
       </c>
       <c r="D11">
-        <v>0.009884908410114272</v>
+        <v>-0.008880030641011652</v>
       </c>
       <c r="E11">
-        <v>-0.03945207323804898</v>
+        <v>-0.005350191180341265</v>
       </c>
       <c r="F11">
-        <v>-0.006929446477372765</v>
+        <v>0.03932745939540645</v>
       </c>
       <c r="G11">
-        <v>-0.02331307479749657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.008024809925109004</v>
+      </c>
+      <c r="H11">
+        <v>0.0002254876522270939</v>
+      </c>
+      <c r="I11">
+        <v>0.02586250876506949</v>
+      </c>
+      <c r="J11">
+        <v>-0.03887549182876035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04561649966632202</v>
+        <v>-0.04610583155559062</v>
       </c>
       <c r="C12">
-        <v>-0.01279612677845583</v>
+        <v>0.01777609731498753</v>
       </c>
       <c r="D12">
-        <v>0.004925348157140482</v>
+        <v>-0.01706151728369433</v>
       </c>
       <c r="E12">
-        <v>-0.02859794353653415</v>
+        <v>-0.008814871503683383</v>
       </c>
       <c r="F12">
-        <v>0.001109650906169172</v>
+        <v>0.0178924107449817</v>
       </c>
       <c r="G12">
-        <v>-0.0005961537558675415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0001841272554410162</v>
+      </c>
+      <c r="H12">
+        <v>0.002277753729094651</v>
+      </c>
+      <c r="I12">
+        <v>0.02101805811447758</v>
+      </c>
+      <c r="J12">
+        <v>-0.02005026472048823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06403520093260597</v>
+        <v>-0.04206656820423538</v>
       </c>
       <c r="C13">
-        <v>-0.01596391748358129</v>
+        <v>0.03152369761948714</v>
       </c>
       <c r="D13">
-        <v>0.0128998239710754</v>
+        <v>-0.003249443700055736</v>
       </c>
       <c r="E13">
-        <v>-0.107153007122467</v>
+        <v>-0.005839859199859153</v>
       </c>
       <c r="F13">
-        <v>-0.01663314237234823</v>
+        <v>0.1044267661529639</v>
       </c>
       <c r="G13">
-        <v>0.001058185422567583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02584884128744707</v>
+      </c>
+      <c r="H13">
+        <v>0.04149186540546979</v>
+      </c>
+      <c r="I13">
+        <v>0.009204337290893856</v>
+      </c>
+      <c r="J13">
+        <v>-0.06111534242479815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03707922255084622</v>
+        <v>-0.02951344521163234</v>
       </c>
       <c r="C14">
-        <v>-0.006922502306227797</v>
+        <v>0.01120122107757795</v>
       </c>
       <c r="D14">
-        <v>-0.02078304894508534</v>
+        <v>-0.01504512407043762</v>
       </c>
       <c r="E14">
-        <v>-0.01874612324373228</v>
+        <v>-0.02445433633148518</v>
       </c>
       <c r="F14">
-        <v>-0.002847899676755352</v>
+        <v>0.03768100617044854</v>
       </c>
       <c r="G14">
-        <v>-0.02005671234545278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03396098424500393</v>
+      </c>
+      <c r="H14">
+        <v>0.04629230831518093</v>
+      </c>
+      <c r="I14">
+        <v>-0.005351515627148873</v>
+      </c>
+      <c r="J14">
+        <v>-0.02158352479714365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04954330471202924</v>
+        <v>-0.04344570366979945</v>
       </c>
       <c r="C16">
-        <v>-0.02219150926971086</v>
+        <v>0.02898013792389028</v>
       </c>
       <c r="D16">
-        <v>0.01321265524111491</v>
+        <v>-0.01920449386979218</v>
       </c>
       <c r="E16">
-        <v>-0.03415385019223095</v>
+        <v>-0.002810326884797236</v>
       </c>
       <c r="F16">
-        <v>0.005495703319236695</v>
+        <v>0.03275231146366438</v>
       </c>
       <c r="G16">
-        <v>-0.007395539238945264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00437596745529501</v>
+      </c>
+      <c r="H16">
+        <v>0.008983414591976555</v>
+      </c>
+      <c r="I16">
+        <v>0.02220938499711635</v>
+      </c>
+      <c r="J16">
+        <v>-0.03213168521896143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05397334653133991</v>
+        <v>-0.0470944306836397</v>
       </c>
       <c r="C19">
-        <v>-0.03093468713147152</v>
+        <v>0.03382095915669637</v>
       </c>
       <c r="D19">
-        <v>0.004714066404271338</v>
+        <v>-0.02221512763878398</v>
       </c>
       <c r="E19">
-        <v>-0.07230156522534338</v>
+        <v>-0.0131624909292945</v>
       </c>
       <c r="F19">
-        <v>0.01434917801882972</v>
+        <v>0.08323930782550368</v>
       </c>
       <c r="G19">
-        <v>-0.02069973217249511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01804761692421171</v>
+      </c>
+      <c r="H19">
+        <v>0.08172299729547604</v>
+      </c>
+      <c r="I19">
+        <v>-0.01628854637423695</v>
+      </c>
+      <c r="J19">
+        <v>-0.05852148285273651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.0389310908124466</v>
+        <v>-0.01923739102001598</v>
       </c>
       <c r="C20">
-        <v>-0.03553556568752424</v>
+        <v>0.02385377198750703</v>
       </c>
       <c r="D20">
-        <v>-0.01221686169340167</v>
+        <v>-0.02553565890241527</v>
       </c>
       <c r="E20">
-        <v>-0.06247650586012132</v>
+        <v>-0.01873457338478605</v>
       </c>
       <c r="F20">
-        <v>0.01376116310798154</v>
+        <v>0.06811126184350272</v>
       </c>
       <c r="G20">
-        <v>-0.005150502869463586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.02162486682447193</v>
+      </c>
+      <c r="H20">
+        <v>0.06283848352523744</v>
+      </c>
+      <c r="I20">
+        <v>0.002706847674415638</v>
+      </c>
+      <c r="J20">
+        <v>-0.08155649467758418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03944615265704596</v>
+        <v>-0.0232174552160544</v>
       </c>
       <c r="C21">
-        <v>-0.01701155190712562</v>
+        <v>0.01602596381180016</v>
       </c>
       <c r="D21">
-        <v>0.0005011193715247007</v>
+        <v>-0.03049861811433794</v>
       </c>
       <c r="E21">
-        <v>-0.09440542833040903</v>
+        <v>-0.002387476940128487</v>
       </c>
       <c r="F21">
-        <v>-0.05014474936565971</v>
+        <v>0.07810621712999269</v>
       </c>
       <c r="G21">
-        <v>-0.0009688918425060559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03829659235818554</v>
+      </c>
+      <c r="H21">
+        <v>0.02268895649656297</v>
+      </c>
+      <c r="I21">
+        <v>0.01428719639331392</v>
+      </c>
+      <c r="J21">
+        <v>-0.02740696724888646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.0509242000011929</v>
+        <v>-0.04248034973168616</v>
       </c>
       <c r="C24">
-        <v>-0.01499560503284964</v>
+        <v>0.02012426249201807</v>
       </c>
       <c r="D24">
-        <v>0.003666059679009601</v>
+        <v>-0.01245709042622065</v>
       </c>
       <c r="E24">
-        <v>-0.04255249078923003</v>
+        <v>-0.007433891758663273</v>
       </c>
       <c r="F24">
-        <v>0.002848883377036413</v>
+        <v>0.03970738862041621</v>
       </c>
       <c r="G24">
-        <v>-0.003239740066671286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003875226035054101</v>
+      </c>
+      <c r="H24">
+        <v>0.006733914225829081</v>
+      </c>
+      <c r="I24">
+        <v>0.02241292027462854</v>
+      </c>
+      <c r="J24">
+        <v>-0.03842183973878878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05063902783785313</v>
+        <v>-0.04455313917890146</v>
       </c>
       <c r="C25">
-        <v>-0.005539451072470268</v>
+        <v>0.02063215222391915</v>
       </c>
       <c r="D25">
-        <v>0.006473549760603775</v>
+        <v>-0.01179204117976358</v>
       </c>
       <c r="E25">
-        <v>-0.04167592044908759</v>
+        <v>-0.005527271446617628</v>
       </c>
       <c r="F25">
-        <v>-0.007129912277020322</v>
+        <v>0.04354054194757505</v>
       </c>
       <c r="G25">
-        <v>-0.01096394065904951</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003015256814501785</v>
+      </c>
+      <c r="H25">
+        <v>0.000460211234865502</v>
+      </c>
+      <c r="I25">
+        <v>0.02088546516477661</v>
+      </c>
+      <c r="J25">
+        <v>-0.02849892640582917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01343820997702514</v>
+        <v>-0.01656065881425794</v>
       </c>
       <c r="C26">
-        <v>-0.02456857931072295</v>
+        <v>0.02190868641729713</v>
       </c>
       <c r="D26">
-        <v>-0.002225848469676973</v>
+        <v>-0.0110036053912046</v>
       </c>
       <c r="E26">
-        <v>-0.03560481202327134</v>
+        <v>0.000149417515551467</v>
       </c>
       <c r="F26">
-        <v>-0.01429856008019699</v>
+        <v>0.04420895878000093</v>
       </c>
       <c r="G26">
-        <v>-0.02115089749143527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02235680844716274</v>
+      </c>
+      <c r="H26">
+        <v>0.0280557186418229</v>
+      </c>
+      <c r="I26">
+        <v>0.01530589387948149</v>
+      </c>
+      <c r="J26">
+        <v>-0.03705583206456124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.112500774691495</v>
+        <v>-0.08034279600211279</v>
       </c>
       <c r="C27">
-        <v>-0.02039273338099943</v>
+        <v>0.02438905471635743</v>
       </c>
       <c r="D27">
-        <v>-0.02227087674958666</v>
+        <v>-0.02036242107657099</v>
       </c>
       <c r="E27">
-        <v>-0.1014271724925099</v>
+        <v>-0.03063561095411471</v>
       </c>
       <c r="F27">
-        <v>-0.01178282703728018</v>
+        <v>0.07434737506720952</v>
       </c>
       <c r="G27">
-        <v>0.01443208303912976</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01578211085073084</v>
+      </c>
+      <c r="H27">
+        <v>0.004106210317961018</v>
+      </c>
+      <c r="I27">
+        <v>-9.6219002995529e-06</v>
+      </c>
+      <c r="J27">
+        <v>-0.04927019048958411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.005961615528457843</v>
+        <v>-0.03499621364541512</v>
       </c>
       <c r="C28">
-        <v>0.2462207063062157</v>
+        <v>-0.1832547151781168</v>
       </c>
       <c r="D28">
-        <v>0.01933341369486977</v>
+        <v>0.1415443752216185</v>
       </c>
       <c r="E28">
-        <v>-0.04331920677157499</v>
+        <v>0.03449897598900228</v>
       </c>
       <c r="F28">
-        <v>-0.02029565280116604</v>
+        <v>0.05874844696181748</v>
       </c>
       <c r="G28">
-        <v>0.002101921482639914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02837117680218309</v>
+      </c>
+      <c r="H28">
+        <v>-0.01745832749286553</v>
+      </c>
+      <c r="I28">
+        <v>-0.1555817214763935</v>
+      </c>
+      <c r="J28">
+        <v>-0.04358303317182623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02091143947906968</v>
+        <v>-0.02142535146162561</v>
       </c>
       <c r="C29">
-        <v>-0.01384602635136058</v>
+        <v>0.01055598112748442</v>
       </c>
       <c r="D29">
-        <v>-0.02333414292092073</v>
+        <v>-0.01945410643444993</v>
       </c>
       <c r="E29">
-        <v>-0.0254045013853485</v>
+        <v>-0.02343572608851394</v>
       </c>
       <c r="F29">
-        <v>-0.01542110791382987</v>
+        <v>0.03750182975817511</v>
       </c>
       <c r="G29">
-        <v>-0.01440166636442414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03768421228016552</v>
+      </c>
+      <c r="H29">
+        <v>0.0436757127450779</v>
+      </c>
+      <c r="I29">
+        <v>0.0009943251197327856</v>
+      </c>
+      <c r="J29">
+        <v>-0.01248986860231717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.109528894694304</v>
+        <v>-0.09463454870989368</v>
       </c>
       <c r="C30">
-        <v>-0.01163941285026966</v>
+        <v>0.05886197369679949</v>
       </c>
       <c r="D30">
-        <v>-0.01858231125445083</v>
+        <v>0.005888512548747266</v>
       </c>
       <c r="E30">
-        <v>-0.111586172215414</v>
+        <v>-0.02976345013834402</v>
       </c>
       <c r="F30">
-        <v>-0.005753552168027873</v>
+        <v>0.09969175892959801</v>
       </c>
       <c r="G30">
-        <v>-0.04591499909959679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01356634650182142</v>
+      </c>
+      <c r="H30">
+        <v>0.01129142823614144</v>
+      </c>
+      <c r="I30">
+        <v>0.02636339329832365</v>
+      </c>
+      <c r="J30">
+        <v>-0.02820419770165013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05792275156540167</v>
+        <v>-0.06265155185732948</v>
       </c>
       <c r="C31">
-        <v>-0.01327120622843469</v>
+        <v>0.02367132232692953</v>
       </c>
       <c r="D31">
-        <v>-0.019752552578607</v>
+        <v>-0.002323861929906011</v>
       </c>
       <c r="E31">
-        <v>0.01806092897223926</v>
+        <v>-0.02045271761108835</v>
       </c>
       <c r="F31">
-        <v>-0.01254873057225426</v>
+        <v>0.003623783948414223</v>
       </c>
       <c r="G31">
-        <v>-0.04909751984782864</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04577758438325224</v>
+      </c>
+      <c r="H31">
+        <v>0.02620101019135506</v>
+      </c>
+      <c r="I31">
+        <v>-0.003869158770186926</v>
+      </c>
+      <c r="J31">
+        <v>-0.01906495783123921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.07045397867174981</v>
+        <v>-0.0469438189037286</v>
       </c>
       <c r="C32">
-        <v>-0.02626982706005965</v>
+        <v>0.03289832683975388</v>
       </c>
       <c r="D32">
-        <v>-0.01001094996210386</v>
+        <v>-0.0415537128945913</v>
       </c>
       <c r="E32">
-        <v>-0.1102233082376902</v>
+        <v>-0.02497710883415279</v>
       </c>
       <c r="F32">
-        <v>0.007461490759430599</v>
+        <v>0.08974413694685691</v>
       </c>
       <c r="G32">
-        <v>-0.0197098700850826</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01542881061395078</v>
+      </c>
+      <c r="H32">
+        <v>0.03100720522102985</v>
+      </c>
+      <c r="I32">
+        <v>-0.003075722570973173</v>
+      </c>
+      <c r="J32">
+        <v>-0.05240612844651205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06977828762935798</v>
+        <v>-0.05769798064906497</v>
       </c>
       <c r="C33">
-        <v>-0.03352247490585276</v>
+        <v>0.05218189723870692</v>
       </c>
       <c r="D33">
-        <v>-0.006453448780994954</v>
+        <v>-0.01388790623584474</v>
       </c>
       <c r="E33">
-        <v>-0.07498081640242336</v>
+        <v>-0.00572404134501052</v>
       </c>
       <c r="F33">
-        <v>-0.04844500942239165</v>
+        <v>0.07941382121436545</v>
       </c>
       <c r="G33">
-        <v>-0.008965467873963431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03920494921811027</v>
+      </c>
+      <c r="H33">
+        <v>0.0313453885298315</v>
+      </c>
+      <c r="I33">
+        <v>0.02723929061699902</v>
+      </c>
+      <c r="J33">
+        <v>-0.04699029011598586</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04989583340689979</v>
+        <v>-0.04518891258553117</v>
       </c>
       <c r="C34">
-        <v>-0.01317988396858319</v>
+        <v>0.02142922452636375</v>
       </c>
       <c r="D34">
-        <v>0.003894906336202416</v>
+        <v>-0.01915134039659434</v>
       </c>
       <c r="E34">
-        <v>-0.02390148149928049</v>
+        <v>-0.01402154493533039</v>
       </c>
       <c r="F34">
-        <v>0.004348470439732583</v>
+        <v>0.03248746090040407</v>
       </c>
       <c r="G34">
-        <v>-0.01108721122548671</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.004612725881326547</v>
+      </c>
+      <c r="H34">
+        <v>0.01064775349778989</v>
+      </c>
+      <c r="I34">
+        <v>0.02070832048345021</v>
+      </c>
+      <c r="J34">
+        <v>-0.02637624323966866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01345344391058321</v>
+        <v>-0.01582891062044724</v>
       </c>
       <c r="C36">
-        <v>0.008810506162563151</v>
+        <v>-0.0001988061404985069</v>
       </c>
       <c r="D36">
-        <v>-0.006915704444667286</v>
+        <v>-0.004997867978588884</v>
       </c>
       <c r="E36">
-        <v>-0.0210471722340543</v>
+        <v>-0.008271738848121685</v>
       </c>
       <c r="F36">
-        <v>-0.006360011856852255</v>
+        <v>0.02725911197502589</v>
       </c>
       <c r="G36">
-        <v>-0.01484410390824567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02591251664015828</v>
+      </c>
+      <c r="H36">
+        <v>0.02523077006051658</v>
+      </c>
+      <c r="I36">
+        <v>0.004026534070954755</v>
+      </c>
+      <c r="J36">
+        <v>-0.006502124570916887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05646280137815132</v>
+        <v>-0.03406231986117457</v>
       </c>
       <c r="C38">
-        <v>-0.008538793300980696</v>
+        <v>0.009420463929359385</v>
       </c>
       <c r="D38">
-        <v>-0.02349533722351069</v>
+        <v>-0.009557711895705225</v>
       </c>
       <c r="E38">
-        <v>-0.03691980990123385</v>
+        <v>-0.009425535449081687</v>
       </c>
       <c r="F38">
-        <v>-0.003658459873626521</v>
+        <v>0.05134956122575563</v>
       </c>
       <c r="G38">
-        <v>0.02678511481481619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02887583479017547</v>
+      </c>
+      <c r="H38">
+        <v>0.009239593962841269</v>
+      </c>
+      <c r="I38">
+        <v>0.009461319894485364</v>
+      </c>
+      <c r="J38">
+        <v>0.001020899588549303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07719798485746528</v>
+        <v>-0.05749868672998849</v>
       </c>
       <c r="C39">
-        <v>-0.01220265963985316</v>
+        <v>0.03743537925682235</v>
       </c>
       <c r="D39">
-        <v>-0.001189965095759265</v>
+        <v>-0.01964954226407797</v>
       </c>
       <c r="E39">
-        <v>-0.04212082717241371</v>
+        <v>-0.0146848162698714</v>
       </c>
       <c r="F39">
-        <v>-0.0203312361451136</v>
+        <v>0.05543742309550664</v>
       </c>
       <c r="G39">
-        <v>-0.01179006139154463</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01646342750640409</v>
+      </c>
+      <c r="H39">
+        <v>-0.002705767053973952</v>
+      </c>
+      <c r="I39">
+        <v>0.04596429624728007</v>
+      </c>
+      <c r="J39">
+        <v>-0.03233641379615303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07501049093714225</v>
+        <v>-0.05673066242432987</v>
       </c>
       <c r="C40">
-        <v>-0.02902973849172322</v>
+        <v>0.04527788985002778</v>
       </c>
       <c r="D40">
-        <v>-0.002572562362869198</v>
+        <v>-0.005969895828322748</v>
       </c>
       <c r="E40">
-        <v>-0.1001319738864219</v>
+        <v>-0.01977478780780574</v>
       </c>
       <c r="F40">
-        <v>-0.03198968766650064</v>
+        <v>0.0977809835144266</v>
       </c>
       <c r="G40">
-        <v>0.04144808673579309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03096026535070513</v>
+      </c>
+      <c r="H40">
+        <v>0.04699368516907373</v>
+      </c>
+      <c r="I40">
+        <v>0.02372334398248259</v>
+      </c>
+      <c r="J40">
+        <v>-0.1124543164245746</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003538971764968631</v>
+        <v>-0.002599498233428848</v>
       </c>
       <c r="C41">
-        <v>-0.01071745084183671</v>
+        <v>0.009369253426421639</v>
       </c>
       <c r="D41">
-        <v>-0.0212653918732973</v>
+        <v>-0.007718097088687585</v>
       </c>
       <c r="E41">
-        <v>-0.01321370436935567</v>
+        <v>-0.006659642723859669</v>
       </c>
       <c r="F41">
-        <v>-0.02975400921531281</v>
+        <v>0.01480353125498151</v>
       </c>
       <c r="G41">
-        <v>-0.01923155911501818</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.04021366464040955</v>
+      </c>
+      <c r="H41">
+        <v>0.02833818609229681</v>
+      </c>
+      <c r="I41">
+        <v>-0.01474830705807307</v>
+      </c>
+      <c r="J41">
+        <v>-0.02186819595598678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.130268979374323</v>
+        <v>-0.215358675763799</v>
       </c>
       <c r="C42">
-        <v>-0.2023798360608061</v>
+        <v>0.1871859789232144</v>
       </c>
       <c r="D42">
-        <v>0.9279206366699058</v>
+        <v>-0.05305853621890291</v>
       </c>
       <c r="E42">
-        <v>0.06930515926019637</v>
+        <v>0.9274536242741315</v>
       </c>
       <c r="F42">
-        <v>0.03006910808981917</v>
+        <v>-0.1606123924416478</v>
       </c>
       <c r="G42">
-        <v>-0.06821392923368454</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.008022883866370446</v>
+      </c>
+      <c r="H42">
+        <v>0.005336929667229137</v>
+      </c>
+      <c r="I42">
+        <v>-0.04135619706265965</v>
+      </c>
+      <c r="J42">
+        <v>-0.03933648987347824</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007764417138632924</v>
+        <v>-0.005150575714551268</v>
       </c>
       <c r="C43">
-        <v>-0.01560824725282431</v>
+        <v>0.01375152776098578</v>
       </c>
       <c r="D43">
-        <v>-0.01515584531663783</v>
+        <v>-0.007525541850723862</v>
       </c>
       <c r="E43">
-        <v>-0.03450392550768024</v>
+        <v>-0.006699719423459428</v>
       </c>
       <c r="F43">
-        <v>-0.005370870397404465</v>
+        <v>0.02813186383294831</v>
       </c>
       <c r="G43">
-        <v>-0.01832691964166041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02409255724076627</v>
+      </c>
+      <c r="H43">
+        <v>0.02927820215124896</v>
+      </c>
+      <c r="I43">
+        <v>-0.00536253757494523</v>
+      </c>
+      <c r="J43">
+        <v>-0.02846821111199249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04001293391796135</v>
+        <v>-0.02871915131807981</v>
       </c>
       <c r="C44">
-        <v>-0.03694491770414834</v>
+        <v>0.03343972282048364</v>
       </c>
       <c r="D44">
-        <v>-0.008175402844656812</v>
+        <v>-0.0266723727899067</v>
       </c>
       <c r="E44">
-        <v>-0.1210542331853974</v>
+        <v>-0.005635230245198859</v>
       </c>
       <c r="F44">
-        <v>-0.09056704245964052</v>
+        <v>0.123338301286203</v>
       </c>
       <c r="G44">
-        <v>-0.01633851191714384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06885694153317287</v>
+      </c>
+      <c r="H44">
+        <v>0.0920311697284725</v>
+      </c>
+      <c r="I44">
+        <v>-0.01190629325657166</v>
+      </c>
+      <c r="J44">
+        <v>-0.04246271256872063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02325035957736968</v>
+        <v>-0.02401679890008336</v>
       </c>
       <c r="C46">
-        <v>-0.01226811055918283</v>
+        <v>0.0238205028279527</v>
       </c>
       <c r="D46">
-        <v>-0.02358624591938104</v>
+        <v>-0.01405596390497764</v>
       </c>
       <c r="E46">
-        <v>-0.0244588992476403</v>
+        <v>-0.02018514017362678</v>
       </c>
       <c r="F46">
-        <v>-0.02651172510716563</v>
+        <v>0.04650834946802563</v>
       </c>
       <c r="G46">
-        <v>-0.02358374493606513</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.035220134029871</v>
+      </c>
+      <c r="H46">
+        <v>0.04743733747725554</v>
+      </c>
+      <c r="I46">
+        <v>-0.002444497702453396</v>
+      </c>
+      <c r="J46">
+        <v>-0.03100582840797845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08403164435682585</v>
+        <v>-0.0911627041473415</v>
       </c>
       <c r="C47">
-        <v>-0.006777970726032874</v>
+        <v>0.01854484661246564</v>
       </c>
       <c r="D47">
-        <v>-0.01995693400908646</v>
+        <v>-0.003889062913946063</v>
       </c>
       <c r="E47">
-        <v>0.02165579448338767</v>
+        <v>-0.02486245592086377</v>
       </c>
       <c r="F47">
-        <v>-0.01249666081958836</v>
+        <v>-0.008847207341453063</v>
       </c>
       <c r="G47">
-        <v>-0.02927988358285445</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.05190327930141665</v>
+      </c>
+      <c r="H47">
+        <v>0.05094749596488691</v>
+      </c>
+      <c r="I47">
+        <v>-0.007581089499080357</v>
+      </c>
+      <c r="J47">
+        <v>-0.02929063146995489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01701143509573478</v>
+        <v>-0.01859636014441281</v>
       </c>
       <c r="C48">
-        <v>-0.01917401807582493</v>
+        <v>0.01648133464427924</v>
       </c>
       <c r="D48">
-        <v>-0.01624447968730264</v>
+        <v>-0.01399869673004058</v>
       </c>
       <c r="E48">
-        <v>-0.02989587486459089</v>
+        <v>-0.01155244829321438</v>
       </c>
       <c r="F48">
-        <v>-0.009431341746643099</v>
+        <v>0.03077499169958691</v>
       </c>
       <c r="G48">
-        <v>-0.003119252252779723</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01768732024239006</v>
+      </c>
+      <c r="H48">
+        <v>0.02145685219137242</v>
+      </c>
+      <c r="I48">
+        <v>-0.007512250617277937</v>
+      </c>
+      <c r="J48">
+        <v>-0.01924215840322903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.0848123131061233</v>
+        <v>-0.08778605708045589</v>
       </c>
       <c r="C50">
-        <v>-0.02807960860179185</v>
+        <v>0.02362453603247166</v>
       </c>
       <c r="D50">
-        <v>-0.02589368543036972</v>
+        <v>-0.0276159930124992</v>
       </c>
       <c r="E50">
-        <v>0.01690551035474713</v>
+        <v>-0.02185613013564731</v>
       </c>
       <c r="F50">
-        <v>-0.002025512600794757</v>
+        <v>-0.001628259970872328</v>
       </c>
       <c r="G50">
-        <v>-0.0380686531227986</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01092841990802118</v>
+      </c>
+      <c r="H50">
+        <v>0.04179719447559106</v>
+      </c>
+      <c r="I50">
+        <v>0.01506701900203014</v>
+      </c>
+      <c r="J50">
+        <v>0.0001432382548523468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06848148413321567</v>
+        <v>-0.04708972959835624</v>
       </c>
       <c r="C51">
-        <v>0.02331559126967778</v>
+        <v>0.006893879022889023</v>
       </c>
       <c r="D51">
-        <v>0.003874401147448526</v>
+        <v>0.01248731369509344</v>
       </c>
       <c r="E51">
-        <v>-0.08317111753521589</v>
+        <v>-0.008065098960564595</v>
       </c>
       <c r="F51">
-        <v>-0.0523411324539754</v>
+        <v>0.09544532900514217</v>
       </c>
       <c r="G51">
-        <v>-0.05704879152377908</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05782125912447002</v>
+      </c>
+      <c r="H51">
+        <v>0.03884549604955557</v>
+      </c>
+      <c r="I51">
+        <v>-0.00735778348596958</v>
+      </c>
+      <c r="J51">
+        <v>-0.05709210831951057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1453625198427586</v>
+        <v>-0.1273886443748976</v>
       </c>
       <c r="C53">
-        <v>-0.007445315791194912</v>
+        <v>0.03243480400514052</v>
       </c>
       <c r="D53">
-        <v>-0.04224561066982201</v>
+        <v>-0.01120983551600289</v>
       </c>
       <c r="E53">
-        <v>0.04261221109538361</v>
+        <v>-0.04680459749242483</v>
       </c>
       <c r="F53">
-        <v>0.003586088704429265</v>
+        <v>-0.03841482505219488</v>
       </c>
       <c r="G53">
-        <v>-0.03822635257204453</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0274168607705275</v>
+      </c>
+      <c r="H53">
+        <v>-0.007385007202811057</v>
+      </c>
+      <c r="I53">
+        <v>-0.02759491033564006</v>
+      </c>
+      <c r="J53">
+        <v>-0.03879774228164554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02805321804559796</v>
+        <v>-0.02420929794792163</v>
       </c>
       <c r="C54">
-        <v>0.005719464268122795</v>
+        <v>0.003137495399754611</v>
       </c>
       <c r="D54">
-        <v>-0.02856278905498417</v>
+        <v>-0.008333481815968196</v>
       </c>
       <c r="E54">
-        <v>-0.03065513176769468</v>
+        <v>-0.02584953633801857</v>
       </c>
       <c r="F54">
-        <v>-0.04813098064696763</v>
+        <v>0.0395287040164655</v>
       </c>
       <c r="G54">
-        <v>-0.0003944940196218368</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05662422107296228</v>
+      </c>
+      <c r="H54">
+        <v>0.0370994461555016</v>
+      </c>
+      <c r="I54">
+        <v>-0.0296432893195546</v>
+      </c>
+      <c r="J54">
+        <v>-0.00603330876707537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09931573235321149</v>
+        <v>-0.1014696363127035</v>
       </c>
       <c r="C55">
-        <v>0.005787160522526162</v>
+        <v>0.01034315420246988</v>
       </c>
       <c r="D55">
-        <v>-0.03621958821976501</v>
+        <v>-0.0205724256757052</v>
       </c>
       <c r="E55">
-        <v>0.007856894377543217</v>
+        <v>-0.03167269257270416</v>
       </c>
       <c r="F55">
-        <v>0.03830407968246943</v>
+        <v>-0.02875295489949702</v>
       </c>
       <c r="G55">
-        <v>0.02079540497835948</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005062473500690811</v>
+      </c>
+      <c r="H55">
+        <v>0.01765175301828038</v>
+      </c>
+      <c r="I55">
+        <v>-0.00827775108569549</v>
+      </c>
+      <c r="J55">
+        <v>-0.03987303629059512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1802742736044097</v>
+        <v>-0.1696753181622637</v>
       </c>
       <c r="C56">
-        <v>0.0130320478374271</v>
+        <v>0.01387811062168063</v>
       </c>
       <c r="D56">
-        <v>-0.07794831694360368</v>
+        <v>-0.00870385637226485</v>
       </c>
       <c r="E56">
-        <v>0.08814254358101406</v>
+        <v>-0.0844794463031609</v>
       </c>
       <c r="F56">
-        <v>0.07754650162894484</v>
+        <v>-0.08654604861173421</v>
       </c>
       <c r="G56">
-        <v>-0.005397448230778709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.03090614777141696</v>
+      </c>
+      <c r="H56">
+        <v>-0.03859275515551057</v>
+      </c>
+      <c r="I56">
+        <v>-0.01589607514376127</v>
+      </c>
+      <c r="J56">
+        <v>-0.04845870122116797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.0969739243117933</v>
+        <v>-0.07308672790915624</v>
       </c>
       <c r="C57">
-        <v>-0.02351739096456505</v>
+        <v>0.0393897840365012</v>
       </c>
       <c r="D57">
-        <v>-0.02296008193159581</v>
+        <v>-0.006562515712609206</v>
       </c>
       <c r="E57">
-        <v>-0.04393636610898925</v>
+        <v>-0.01367666297412569</v>
       </c>
       <c r="F57">
-        <v>-0.02709760629751247</v>
+        <v>0.06042626932077566</v>
       </c>
       <c r="G57">
-        <v>-0.01764002804502642</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02512231140854873</v>
+      </c>
+      <c r="H57">
+        <v>0.0208785245393992</v>
+      </c>
+      <c r="I57">
+        <v>0.01833719531462775</v>
+      </c>
+      <c r="J57">
+        <v>-0.03292770998846005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1753728903928843</v>
+        <v>-0.2011045065654548</v>
       </c>
       <c r="C58">
-        <v>-0.002406597722004955</v>
+        <v>0.1097400276803268</v>
       </c>
       <c r="D58">
-        <v>0.04321368596640833</v>
+        <v>0.0321729682296901</v>
       </c>
       <c r="E58">
-        <v>-0.1319142672328108</v>
+        <v>0.01324149895963965</v>
       </c>
       <c r="F58">
-        <v>0.0499761469743813</v>
+        <v>0.2440448941324313</v>
       </c>
       <c r="G58">
-        <v>0.002303285386741069</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1057031264018662</v>
+      </c>
+      <c r="H58">
+        <v>0.4151605114411059</v>
+      </c>
+      <c r="I58">
+        <v>-0.1067732008347039</v>
+      </c>
+      <c r="J58">
+        <v>0.7439483183623157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.005811516345067417</v>
+        <v>-0.03771027933716574</v>
       </c>
       <c r="C59">
-        <v>0.2035965697562911</v>
+        <v>-0.1456595217577847</v>
       </c>
       <c r="D59">
-        <v>-0.009361603654716872</v>
+        <v>0.1351729531471406</v>
       </c>
       <c r="E59">
-        <v>-0.05845149429297376</v>
+        <v>0.000671951190625794</v>
       </c>
       <c r="F59">
-        <v>-0.01403498472557605</v>
+        <v>0.07332162414699063</v>
       </c>
       <c r="G59">
-        <v>-0.005967223582984003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003342727233770815</v>
+      </c>
+      <c r="H59">
+        <v>-0.01724407595967903</v>
+      </c>
+      <c r="I59">
+        <v>-0.06423685960807805</v>
+      </c>
+      <c r="J59">
+        <v>-0.009825611750866528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1873286962736969</v>
+        <v>-0.1844644149151829</v>
       </c>
       <c r="C60">
-        <v>0.1039762748236611</v>
+        <v>-0.007044006831823252</v>
       </c>
       <c r="D60">
-        <v>-0.01184892282098112</v>
+        <v>0.06987071568316976</v>
       </c>
       <c r="E60">
-        <v>-0.1800523082141121</v>
+        <v>-0.009957704834201055</v>
       </c>
       <c r="F60">
-        <v>-0.05032239399547608</v>
+        <v>0.2000441093283547</v>
       </c>
       <c r="G60">
-        <v>-0.02927923716480739</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1155542394322792</v>
+      </c>
+      <c r="H60">
+        <v>-0.2546601981392015</v>
+      </c>
+      <c r="I60">
+        <v>0.08681238584465577</v>
+      </c>
+      <c r="J60">
+        <v>0.02179206517940627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04904970050917996</v>
+        <v>-0.03819200508742201</v>
       </c>
       <c r="C61">
-        <v>-0.001272439557749403</v>
+        <v>0.01953182711273111</v>
       </c>
       <c r="D61">
-        <v>0.005872290318581699</v>
+        <v>-0.01411557821775661</v>
       </c>
       <c r="E61">
-        <v>-0.04337971648064857</v>
+        <v>-0.003693915888422315</v>
       </c>
       <c r="F61">
-        <v>-0.01042660885679071</v>
+        <v>0.04066970999057797</v>
       </c>
       <c r="G61">
-        <v>-0.003299582823850967</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.007848016946417808</v>
+      </c>
+      <c r="H61">
+        <v>-0.004100577425376479</v>
+      </c>
+      <c r="I61">
+        <v>0.04255651588394106</v>
+      </c>
+      <c r="J61">
+        <v>-0.01130248034954664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04764594303159327</v>
+        <v>-0.0325401981123368</v>
       </c>
       <c r="C63">
-        <v>0.003670672302286588</v>
+        <v>0.01648790559446446</v>
       </c>
       <c r="D63">
-        <v>-0.0143926000494584</v>
+        <v>-0.008950479659262513</v>
       </c>
       <c r="E63">
-        <v>-0.0337243670406813</v>
+        <v>-0.0142877969544091</v>
       </c>
       <c r="F63">
-        <v>-0.004920919848482167</v>
+        <v>0.02905720521876743</v>
       </c>
       <c r="G63">
-        <v>-0.01512738707799757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02085818048620784</v>
+      </c>
+      <c r="H63">
+        <v>0.03728293050143749</v>
+      </c>
+      <c r="I63">
+        <v>-0.01557943997100717</v>
+      </c>
+      <c r="J63">
+        <v>-0.0470338849105126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.0806464889811772</v>
+        <v>-0.05556158446352856</v>
       </c>
       <c r="C64">
-        <v>-0.04172596365663862</v>
+        <v>0.0318601367513166</v>
       </c>
       <c r="D64">
-        <v>-0.05972721154503675</v>
+        <v>-0.04129199717423785</v>
       </c>
       <c r="E64">
-        <v>-0.06384358019388706</v>
+        <v>-0.03945384582112684</v>
       </c>
       <c r="F64">
-        <v>-0.06030772718933536</v>
+        <v>0.05621973913510124</v>
       </c>
       <c r="G64">
-        <v>0.02894321183729693</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05575871144167004</v>
+      </c>
+      <c r="H64">
+        <v>-0.01271299622228925</v>
+      </c>
+      <c r="I64">
+        <v>0.002778946275523068</v>
+      </c>
+      <c r="J64">
+        <v>-0.09252942921483379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01992486707290454</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.001212292917801091</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.008497100461592785</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.002458361389405955</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001971280782941935</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02126437302952622</v>
+      </c>
+      <c r="H65">
+        <v>0.0004906473282764657</v>
+      </c>
+      <c r="I65">
+        <v>0.01119607783221921</v>
+      </c>
+      <c r="J65">
+        <v>-0.003227715451550138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09660289859309054</v>
+        <v>-0.06931623801726998</v>
       </c>
       <c r="C66">
-        <v>-0.0244309527621873</v>
+        <v>0.05335166242019872</v>
       </c>
       <c r="D66">
-        <v>-0.03688036692394812</v>
+        <v>-0.02161661821706713</v>
       </c>
       <c r="E66">
-        <v>-0.07873912425379463</v>
+        <v>-0.04297469617409758</v>
       </c>
       <c r="F66">
-        <v>-0.04301567468556774</v>
+        <v>0.0693029791563177</v>
       </c>
       <c r="G66">
-        <v>-0.02153390405895728</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01420579763971223</v>
+      </c>
+      <c r="H66">
+        <v>-0.007845500434240274</v>
+      </c>
+      <c r="I66">
+        <v>0.06368983283277052</v>
+      </c>
+      <c r="J66">
+        <v>-0.05419984397637065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06387080038260162</v>
+        <v>-0.04565686374245292</v>
       </c>
       <c r="C67">
-        <v>0.0153494474347171</v>
+        <v>-0.00208011033152288</v>
       </c>
       <c r="D67">
-        <v>-0.009526269401556613</v>
+        <v>0.004277211319249921</v>
       </c>
       <c r="E67">
-        <v>-0.0301264590495214</v>
+        <v>-0.007053622140697597</v>
       </c>
       <c r="F67">
-        <v>-0.00666876461394409</v>
+        <v>0.04017770113218098</v>
       </c>
       <c r="G67">
-        <v>0.03461265958837442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03223445338599546</v>
+      </c>
+      <c r="H67">
+        <v>-0.01444520956589306</v>
+      </c>
+      <c r="I67">
+        <v>0.03990743184759117</v>
+      </c>
+      <c r="J67">
+        <v>0.0007240047850827208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.005833710980832305</v>
+        <v>-0.04456751877154952</v>
       </c>
       <c r="C68">
-        <v>0.2481886632020651</v>
+        <v>-0.1760847101720741</v>
       </c>
       <c r="D68">
-        <v>0.00795662913682244</v>
+        <v>0.1539719651407124</v>
       </c>
       <c r="E68">
-        <v>-0.04378826307746935</v>
+        <v>0.0121342087459161</v>
       </c>
       <c r="F68">
-        <v>-0.006236561172066245</v>
+        <v>0.05738263127762572</v>
       </c>
       <c r="G68">
-        <v>-0.01611418179188313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.005853466570105636</v>
+      </c>
+      <c r="H68">
+        <v>-0.00880869529269745</v>
+      </c>
+      <c r="I68">
+        <v>-0.1682431693328446</v>
+      </c>
+      <c r="J68">
+        <v>0.004325610313504694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06951145904387472</v>
+        <v>-0.0715159083195813</v>
       </c>
       <c r="C69">
-        <v>-0.01089768291459987</v>
+        <v>0.02106346536999014</v>
       </c>
       <c r="D69">
-        <v>-0.02191691431496094</v>
+        <v>-0.007113910896379651</v>
       </c>
       <c r="E69">
-        <v>0.01099176065238479</v>
+        <v>-0.02973039359819568</v>
       </c>
       <c r="F69">
-        <v>-0.002939081712124731</v>
+        <v>0.001187148360332435</v>
       </c>
       <c r="G69">
-        <v>-0.02547144817354194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03091561593722818</v>
+      </c>
+      <c r="H69">
+        <v>0.02587774274103097</v>
+      </c>
+      <c r="I69">
+        <v>0.01437967377066268</v>
+      </c>
+      <c r="J69">
+        <v>-0.02900757540396793</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.006915467861483361</v>
+        <v>-0.04864121434327531</v>
       </c>
       <c r="C71">
-        <v>0.2720652030582984</v>
+        <v>-0.1854104725110251</v>
       </c>
       <c r="D71">
-        <v>0.01123481723816264</v>
+        <v>0.1709849400804363</v>
       </c>
       <c r="E71">
-        <v>-0.08205510959808733</v>
+        <v>0.03512425363237581</v>
       </c>
       <c r="F71">
-        <v>-0.02176001663344751</v>
+        <v>0.08222017765051287</v>
       </c>
       <c r="G71">
-        <v>-0.04017646032910726</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01213992923029834</v>
+      </c>
+      <c r="H71">
+        <v>-0.03093714580097049</v>
+      </c>
+      <c r="I71">
+        <v>-0.1307581969330853</v>
+      </c>
+      <c r="J71">
+        <v>-0.02102741559856789</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1155523857548004</v>
+        <v>-0.1208362679224665</v>
       </c>
       <c r="C72">
-        <v>0.01012187131014157</v>
+        <v>0.01780347917200863</v>
       </c>
       <c r="D72">
-        <v>-0.04411285304836984</v>
+        <v>-0.003122865904136856</v>
       </c>
       <c r="E72">
-        <v>-0.09785382948683351</v>
+        <v>-0.05420246212145476</v>
       </c>
       <c r="F72">
-        <v>0.01188556671762882</v>
+        <v>0.08799565226830684</v>
       </c>
       <c r="G72">
-        <v>0.02821344837608337</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04863888089427423</v>
+      </c>
+      <c r="H72">
+        <v>0.02363113372034659</v>
+      </c>
+      <c r="I72">
+        <v>0.03687795297808683</v>
+      </c>
+      <c r="J72">
+        <v>0.08444987983504496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.277192050681689</v>
+        <v>-0.2651567294177855</v>
       </c>
       <c r="C73">
-        <v>0.1694382628812262</v>
+        <v>-0.01471116632586379</v>
       </c>
       <c r="D73">
-        <v>0.04674693027083947</v>
+        <v>0.1315457485813248</v>
       </c>
       <c r="E73">
-        <v>-0.3333860042420808</v>
+        <v>0.03567476518139905</v>
       </c>
       <c r="F73">
-        <v>-0.05119764174141139</v>
+        <v>0.3096827899365474</v>
       </c>
       <c r="G73">
-        <v>-0.02266984428435797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2365704658177493</v>
+      </c>
+      <c r="H73">
+        <v>-0.4432081707126346</v>
+      </c>
+      <c r="I73">
+        <v>0.2899885699516488</v>
+      </c>
+      <c r="J73">
+        <v>0.09107915235631418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1581763408617409</v>
+        <v>-0.1522710614114084</v>
       </c>
       <c r="C74">
-        <v>0.004911250589337657</v>
+        <v>0.02636330530336044</v>
       </c>
       <c r="D74">
-        <v>-0.04264781768555235</v>
+        <v>-0.0003147853114962827</v>
       </c>
       <c r="E74">
-        <v>0.0184516380594401</v>
+        <v>-0.04826545820296739</v>
       </c>
       <c r="F74">
-        <v>0.05593343711080484</v>
+        <v>-0.05215325991858527</v>
       </c>
       <c r="G74">
-        <v>-0.05155118352320028</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01976320257995662</v>
+      </c>
+      <c r="H74">
+        <v>-0.02671831615797601</v>
+      </c>
+      <c r="I74">
+        <v>0.006019830366509571</v>
+      </c>
+      <c r="J74">
+        <v>-0.0813959871236519</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2338947551396366</v>
+        <v>-0.2461425323161941</v>
       </c>
       <c r="C75">
-        <v>0.01835867218368606</v>
+        <v>0.02631615053733211</v>
       </c>
       <c r="D75">
-        <v>-0.06591375662834822</v>
+        <v>0.01823824915074047</v>
       </c>
       <c r="E75">
-        <v>0.1237251124856706</v>
+        <v>-0.1052045967437025</v>
       </c>
       <c r="F75">
-        <v>0.04013661632793018</v>
+        <v>-0.1393869841104172</v>
       </c>
       <c r="G75">
-        <v>-0.04396228483775706</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005509896074241725</v>
+      </c>
+      <c r="H75">
+        <v>-0.01642536431620339</v>
+      </c>
+      <c r="I75">
+        <v>-0.08512550426254663</v>
+      </c>
+      <c r="J75">
+        <v>-0.0550020985300474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2476282850046035</v>
+        <v>-0.2693844170435369</v>
       </c>
       <c r="C76">
-        <v>0.01534941366660116</v>
+        <v>0.008931894434734779</v>
       </c>
       <c r="D76">
-        <v>-0.1097430661935245</v>
+        <v>-0.01571870146427448</v>
       </c>
       <c r="E76">
-        <v>0.124212481870991</v>
+        <v>-0.1311261818893587</v>
       </c>
       <c r="F76">
-        <v>0.07331797130767324</v>
+        <v>-0.1760128191958171</v>
       </c>
       <c r="G76">
-        <v>-0.03901895334645193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05157335562299482</v>
+      </c>
+      <c r="H76">
+        <v>-0.03598348226894661</v>
+      </c>
+      <c r="I76">
+        <v>-0.003688632022469831</v>
+      </c>
+      <c r="J76">
+        <v>-0.06782621083988893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.131678109714684</v>
+        <v>-0.1299906493334527</v>
       </c>
       <c r="C77">
-        <v>-0.01840823602564741</v>
+        <v>0.05934685663022171</v>
       </c>
       <c r="D77">
-        <v>0.04859982350378075</v>
+        <v>-0.03052153314793686</v>
       </c>
       <c r="E77">
-        <v>-0.1497617406876257</v>
+        <v>0.04030216967728806</v>
       </c>
       <c r="F77">
-        <v>-0.008194540546417021</v>
+        <v>0.1633776207448625</v>
       </c>
       <c r="G77">
-        <v>0.07301215199346466</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02787409460824983</v>
+      </c>
+      <c r="H77">
+        <v>0.1959860909454611</v>
+      </c>
+      <c r="I77">
+        <v>-0.1371196691848045</v>
+      </c>
+      <c r="J77">
+        <v>-0.1494403518876716</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08526166588153114</v>
+        <v>-0.08352021186811777</v>
       </c>
       <c r="C78">
-        <v>-0.03817625743421917</v>
+        <v>0.05212519792932986</v>
       </c>
       <c r="D78">
-        <v>0.01811299534235349</v>
+        <v>-0.04218674063685879</v>
       </c>
       <c r="E78">
-        <v>-0.05425463720128771</v>
+        <v>0.0016695063973689</v>
       </c>
       <c r="F78">
-        <v>-0.01465233657692474</v>
+        <v>0.07576323951115409</v>
       </c>
       <c r="G78">
-        <v>-0.01230570368703212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01325200703207868</v>
+      </c>
+      <c r="H78">
+        <v>0.02736454491096806</v>
+      </c>
+      <c r="I78">
+        <v>-0.008362239842589658</v>
+      </c>
+      <c r="J78">
+        <v>-0.06145809116125595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.0724850321365913</v>
+        <v>-0.1514052061724644</v>
       </c>
       <c r="C80">
-        <v>-0.01525046436861336</v>
+        <v>-0.6247001177131135</v>
       </c>
       <c r="D80">
-        <v>0.01560439569430617</v>
+        <v>-0.7451796856726204</v>
       </c>
       <c r="E80">
-        <v>0.03012030800844344</v>
+        <v>0.06713866394254252</v>
       </c>
       <c r="F80">
-        <v>0.1573059904676421</v>
+        <v>0.0488989359946662</v>
       </c>
       <c r="G80">
-        <v>0.9239865492745539</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03920477557317961</v>
+      </c>
+      <c r="H80">
+        <v>-0.05692038026915324</v>
+      </c>
+      <c r="I80">
+        <v>-0.003047849613449784</v>
+      </c>
+      <c r="J80">
+        <v>0.104726726672398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.163393056042578</v>
+        <v>-0.1815717136313322</v>
       </c>
       <c r="C81">
-        <v>0.01371430711548139</v>
+        <v>0.006353098896814793</v>
       </c>
       <c r="D81">
-        <v>-0.0527232506230923</v>
+        <v>0.006398217353605241</v>
       </c>
       <c r="E81">
-        <v>0.1507581259532129</v>
+        <v>-0.08504369470090035</v>
       </c>
       <c r="F81">
-        <v>0.09763320581729744</v>
+        <v>-0.1583892007995259</v>
       </c>
       <c r="G81">
-        <v>-0.03813956477608731</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02829748293624154</v>
+      </c>
+      <c r="H81">
+        <v>-0.007042051168620262</v>
+      </c>
+      <c r="I81">
+        <v>-0.0467144235196508</v>
+      </c>
+      <c r="J81">
+        <v>-0.02066873565656384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09290936067594326</v>
+        <v>-0.06858596777071187</v>
       </c>
       <c r="C83">
-        <v>-0.04053992496484513</v>
+        <v>0.04674255506118515</v>
       </c>
       <c r="D83">
-        <v>0.08169025083393522</v>
+        <v>-0.01534654872673107</v>
       </c>
       <c r="E83">
-        <v>-0.01573803304734257</v>
+        <v>0.04004879239756987</v>
       </c>
       <c r="F83">
-        <v>-0.06320855013392077</v>
+        <v>0.04905857255305823</v>
       </c>
       <c r="G83">
-        <v>-0.01401412517272632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0608312510344174</v>
+      </c>
+      <c r="H83">
+        <v>0.00780176218483517</v>
+      </c>
+      <c r="I83">
+        <v>0.004459337355199869</v>
+      </c>
+      <c r="J83">
+        <v>-0.08176935655488411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2360465878787891</v>
+        <v>-0.2537089873940158</v>
       </c>
       <c r="C85">
-        <v>-0.04686243511140913</v>
+        <v>0.04637068122412777</v>
       </c>
       <c r="D85">
-        <v>-0.06407462719537575</v>
+        <v>-0.02255509146824888</v>
       </c>
       <c r="E85">
-        <v>0.150858825355526</v>
+        <v>-0.08861673716037063</v>
       </c>
       <c r="F85">
-        <v>0.06630756338525871</v>
+        <v>-0.1796410697965434</v>
       </c>
       <c r="G85">
-        <v>-0.03161694492608028</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.003762469075797718</v>
+      </c>
+      <c r="H85">
+        <v>0.02073795217180996</v>
+      </c>
+      <c r="I85">
+        <v>-0.03988082668461044</v>
+      </c>
+      <c r="J85">
+        <v>-0.1048765425198702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04696071302358988</v>
+        <v>-0.02663092123783629</v>
       </c>
       <c r="C86">
-        <v>-0.04449667396787546</v>
+        <v>0.04857974668504182</v>
       </c>
       <c r="D86">
-        <v>-0.01491348620639955</v>
+        <v>-0.03700513157360256</v>
       </c>
       <c r="E86">
-        <v>-0.06379377669260651</v>
+        <v>-0.009086246759125789</v>
       </c>
       <c r="F86">
-        <v>-9.944591652318406e-05</v>
+        <v>0.07143705356100627</v>
       </c>
       <c r="G86">
-        <v>-0.02923871061051331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0110210163459769</v>
+      </c>
+      <c r="H86">
+        <v>0.06218843201093801</v>
+      </c>
+      <c r="I86">
+        <v>-0.01411931206518482</v>
+      </c>
+      <c r="J86">
+        <v>-0.05302808560841322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02023751188599883</v>
+        <v>-0.03370468918194772</v>
       </c>
       <c r="C87">
-        <v>0.04965292431501897</v>
+        <v>-0.01054545081171308</v>
       </c>
       <c r="D87">
-        <v>-0.00609247469382467</v>
+        <v>0.01439724819903363</v>
       </c>
       <c r="E87">
-        <v>-0.09706967121430843</v>
+        <v>-0.001618320628969099</v>
       </c>
       <c r="F87">
-        <v>0.01321422774975281</v>
+        <v>0.1033400050424078</v>
       </c>
       <c r="G87">
-        <v>-0.03415739775312291</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02036892931420629</v>
+      </c>
+      <c r="H87">
+        <v>0.01882547973539834</v>
+      </c>
+      <c r="I87">
+        <v>0.02316038697614078</v>
+      </c>
+      <c r="J87">
+        <v>-0.01171298331858595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.04034601306416771</v>
+        <v>-0.028647414950046</v>
       </c>
       <c r="C88">
-        <v>-0.03026118218548071</v>
+        <v>0.01057044413147662</v>
       </c>
       <c r="D88">
-        <v>-0.008982197393778623</v>
+        <v>-0.0225854300895742</v>
       </c>
       <c r="E88">
-        <v>0.01223226026355734</v>
+        <v>-0.01647694068202596</v>
       </c>
       <c r="F88">
-        <v>0.01155988702751196</v>
+        <v>-0.01097276863255171</v>
       </c>
       <c r="G88">
-        <v>-0.005025376832060758</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04192598240877583</v>
+      </c>
+      <c r="H88">
+        <v>0.03496498524956313</v>
+      </c>
+      <c r="I88">
+        <v>0.03402625851723887</v>
+      </c>
+      <c r="J88">
+        <v>-0.03186636381981763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.01192845740710999</v>
+        <v>-0.06449721970939001</v>
       </c>
       <c r="C89">
-        <v>0.4172797561794495</v>
+        <v>-0.2867332159032096</v>
       </c>
       <c r="D89">
-        <v>0.09626744488523482</v>
+        <v>0.2735413360328391</v>
       </c>
       <c r="E89">
-        <v>0.01111993367509358</v>
+        <v>0.05908224972759024</v>
       </c>
       <c r="F89">
-        <v>-0.009802589069885069</v>
+        <v>0.03681227997004473</v>
       </c>
       <c r="G89">
-        <v>-0.02417250677404662</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0511788028404545</v>
+      </c>
+      <c r="H89">
+        <v>0.0344856098833391</v>
+      </c>
+      <c r="I89">
+        <v>-0.2707617182625469</v>
+      </c>
+      <c r="J89">
+        <v>-0.02861182774160174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.009275641957512621</v>
+        <v>-0.04335385744563935</v>
       </c>
       <c r="C90">
-        <v>0.3097123549808423</v>
+        <v>-0.2536368556598279</v>
       </c>
       <c r="D90">
-        <v>0.03307192815554823</v>
+        <v>0.2184045063034124</v>
       </c>
       <c r="E90">
-        <v>-0.04348554424122255</v>
+        <v>0.04128598410788253</v>
       </c>
       <c r="F90">
-        <v>-0.01833192408233729</v>
+        <v>0.03742148109866945</v>
       </c>
       <c r="G90">
-        <v>-0.03952987504138552</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02666051456014183</v>
+      </c>
+      <c r="H90">
+        <v>0.002810312044884357</v>
+      </c>
+      <c r="I90">
+        <v>-0.2259935466969825</v>
+      </c>
+      <c r="J90">
+        <v>-0.03784611507698577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2938104776501748</v>
+        <v>-0.3085777664858748</v>
       </c>
       <c r="C91">
-        <v>-0.01414225549679553</v>
+        <v>0.03585597919064234</v>
       </c>
       <c r="D91">
-        <v>-0.07217469676844578</v>
+        <v>-0.005090890900042913</v>
       </c>
       <c r="E91">
-        <v>0.2934986008659554</v>
+        <v>-0.09883766769579212</v>
       </c>
       <c r="F91">
-        <v>0.1455899757005658</v>
+        <v>-0.2962235596396677</v>
       </c>
       <c r="G91">
-        <v>0.03733758350734333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03494082907788043</v>
+      </c>
+      <c r="H91">
+        <v>-0.006442422251596334</v>
+      </c>
+      <c r="I91">
+        <v>-0.1041645534379868</v>
+      </c>
+      <c r="J91">
+        <v>-0.1095551538960069</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.0006319648025826116</v>
+        <v>-0.09890731579029752</v>
       </c>
       <c r="C92">
-        <v>0.4295543617938508</v>
+        <v>-0.3504294563643657</v>
       </c>
       <c r="D92">
-        <v>0.2052220508065959</v>
+        <v>0.2728017512708262</v>
       </c>
       <c r="E92">
-        <v>0.1452187814591583</v>
+        <v>0.07873766505535619</v>
       </c>
       <c r="F92">
-        <v>0.07517409538889645</v>
+        <v>-0.117387876671082</v>
       </c>
       <c r="G92">
-        <v>0.1512351875713218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1463919277466178</v>
+      </c>
+      <c r="H92">
+        <v>0.4071989386946503</v>
+      </c>
+      <c r="I92">
+        <v>0.7406233577019332</v>
+      </c>
+      <c r="J92">
+        <v>-0.08426721927001729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01873633086108322</v>
+        <v>-0.04900103908339631</v>
       </c>
       <c r="C93">
-        <v>0.3758690577501241</v>
+        <v>-0.3016876319446063</v>
       </c>
       <c r="D93">
-        <v>0.07415867611943992</v>
+        <v>0.2789987847167682</v>
       </c>
       <c r="E93">
-        <v>0.03403326985142757</v>
+        <v>0.07583790179009775</v>
       </c>
       <c r="F93">
-        <v>0.01257294369527748</v>
+        <v>0.002976584190324566</v>
       </c>
       <c r="G93">
-        <v>0.03734113887715493</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03402349649030789</v>
+      </c>
+      <c r="H93">
+        <v>-0.02280416400924272</v>
+      </c>
+      <c r="I93">
+        <v>-0.1870066980248126</v>
+      </c>
+      <c r="J93">
+        <v>-0.006328622814165906</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2763917190314731</v>
+        <v>-0.3055950759525971</v>
       </c>
       <c r="C94">
-        <v>0.06641594552489574</v>
+        <v>0.01038257647609631</v>
       </c>
       <c r="D94">
-        <v>-0.0210351672925049</v>
+        <v>0.0475082329398601</v>
       </c>
       <c r="E94">
-        <v>0.3539971741539786</v>
+        <v>-0.1324801960964302</v>
       </c>
       <c r="F94">
-        <v>0.3879866285816779</v>
+        <v>-0.3371253577969979</v>
       </c>
       <c r="G94">
-        <v>-0.1604051403595314</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1711049422891645</v>
+      </c>
+      <c r="H94">
+        <v>0.1629909794063415</v>
+      </c>
+      <c r="I94">
+        <v>-0.0445319125551502</v>
+      </c>
+      <c r="J94">
+        <v>0.1929421507089238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1955921734514945</v>
+        <v>-0.1292800201772479</v>
       </c>
       <c r="C95">
-        <v>0.02646480380010631</v>
+        <v>0.09857383968209392</v>
       </c>
       <c r="D95">
-        <v>0.002132860848960531</v>
+        <v>0.04725075054267691</v>
       </c>
       <c r="E95">
-        <v>0.3979397427247381</v>
+        <v>-0.02581083367771802</v>
       </c>
       <c r="F95">
-        <v>-0.8388829756872414</v>
+        <v>-0.06020572324143929</v>
       </c>
       <c r="G95">
-        <v>0.1116839041533502</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8714682198585998</v>
+      </c>
+      <c r="H95">
+        <v>-0.2790138984090984</v>
+      </c>
+      <c r="I95">
+        <v>0.01867865160450716</v>
+      </c>
+      <c r="J95">
+        <v>0.2842666047772503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2216226229914696</v>
+        <v>-0.2058813573564346</v>
       </c>
       <c r="C98">
-        <v>0.118053749199708</v>
+        <v>-0.008639438301928093</v>
       </c>
       <c r="D98">
-        <v>0.04718370482363753</v>
+        <v>0.09127244527413753</v>
       </c>
       <c r="E98">
-        <v>-0.09844713620839428</v>
+        <v>0.02920235910212193</v>
       </c>
       <c r="F98">
-        <v>-0.04956430256156913</v>
+        <v>0.1578211263568172</v>
       </c>
       <c r="G98">
-        <v>-0.07905405873712018</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1297918157268858</v>
+      </c>
+      <c r="H98">
+        <v>-0.3247258633784918</v>
+      </c>
+      <c r="I98">
+        <v>0.1413924298232524</v>
+      </c>
+      <c r="J98">
+        <v>0.09244627289437572</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02061814689816096</v>
+        <v>-0.0150967751981507</v>
       </c>
       <c r="C101">
-        <v>-0.01418158190509071</v>
+        <v>0.02150182847548688</v>
       </c>
       <c r="D101">
-        <v>-0.02492241188743563</v>
+        <v>-0.02309565147005819</v>
       </c>
       <c r="E101">
-        <v>-0.02587428768873177</v>
+        <v>-0.03014908743514814</v>
       </c>
       <c r="F101">
-        <v>-0.01517616806962903</v>
+        <v>0.06730232061010064</v>
       </c>
       <c r="G101">
-        <v>-0.01440927081596955</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03175809131020524</v>
+      </c>
+      <c r="H101">
+        <v>0.1088886361807738</v>
+      </c>
+      <c r="I101">
+        <v>0.01011679266030959</v>
+      </c>
+      <c r="J101">
+        <v>0.1110213460982999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1159595819415943</v>
+        <v>-0.1211512023343922</v>
       </c>
       <c r="C102">
-        <v>-0.008994704495185782</v>
+        <v>0.01709971188608721</v>
       </c>
       <c r="D102">
-        <v>-0.03607838300263692</v>
+        <v>-0.01387412345894413</v>
       </c>
       <c r="E102">
-        <v>0.0820661076988784</v>
+        <v>-0.05323507415417771</v>
       </c>
       <c r="F102">
-        <v>0.002067698657336094</v>
+        <v>-0.09479520876479601</v>
       </c>
       <c r="G102">
-        <v>0.001149361669278786</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0208644279194096</v>
+      </c>
+      <c r="H102">
+        <v>-0.02624305250818024</v>
+      </c>
+      <c r="I102">
+        <v>-0.03932147096305848</v>
+      </c>
+      <c r="J102">
+        <v>-0.04626680458579917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01783772199461823</v>
+        <v>-0.03103435330618713</v>
       </c>
       <c r="C103">
-        <v>-0.0001703235137688069</v>
+        <v>0.001736350624303985</v>
       </c>
       <c r="D103">
-        <v>-0.01267705796732538</v>
+        <v>-0.009898415686693477</v>
       </c>
       <c r="E103">
-        <v>0.02729984698033526</v>
+        <v>-0.02040503108906759</v>
       </c>
       <c r="F103">
-        <v>0.009375449315921987</v>
+        <v>-0.02318316960340329</v>
       </c>
       <c r="G103">
-        <v>-0.0210076557706153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01740242506707866</v>
+      </c>
+      <c r="H103">
+        <v>0.01178150238696123</v>
+      </c>
+      <c r="I103">
+        <v>-0.0236704221463019</v>
+      </c>
+      <c r="J103">
+        <v>-0.01741375388547777</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
